--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="66">
   <si>
     <t>BikeName</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Expected Launch : Unrevealed</t>
+  </si>
+  <si>
+    <t>Expected Launch : Nov 2024</t>
+  </si>
+  <si>
+    <t>Expected Launch Date : 31 Dec 2050</t>
   </si>
 </sst>
 </file>
@@ -590,35 +596,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -629,37 +635,37 @@
         <v>11</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>63</v>
@@ -667,13 +673,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">

--- a/Testdata/TestData.xlsx
+++ b/Testdata/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="66">
   <si>
     <t>BikeName</t>
   </si>
